--- a/Competition/Competition/ExcelData/TestDataManageListings.xlsx
+++ b/Competition/Competition/ExcelData/TestDataManageListings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siva Kanteti\Desktop\INDUSTRY connect\marsframework-master\marsframework-master\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competition\Competition\Competition\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0972590-33D7-4F92-8982-B24D94D7F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AFC80A-4646-429A-9423-657F7C32609C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
